--- a/Chi_Note.xlsx
+++ b/Chi_Note.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chittb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chittb\Desktop\PersonalNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA55CC4-5C67-420C-B04F-2819DCC2815A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D01BD1-06BD-4169-A7AE-F3F3DEF4E1F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C03227D-E59D-4D44-9BCA-F3CC0FE15709}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
-  <si>
-    <t>Research</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Visual code
 - Create project: mkdir &lt;project name&gt;
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>https://o7planning.org/vi/10169/huong-dan-lap-trinh-java-servlet</t>
-  </si>
-  <si>
-    <t>JustRead Server</t>
   </si>
   <si>
     <t>Connect asp.net core 2.2 to sql server</t>
@@ -97,9 +91,6 @@
     <t>https://www.youtube.com/watch?v=_7cyXRQJwII</t>
   </si>
   <si>
-    <t>JustRead Client</t>
-  </si>
-  <si>
     <t>https://docs.microsoft.com/en-us/aspnet/core/client-side/spa/react?view=aspnetcore-2.2&amp;tabs=visual-studio</t>
   </si>
   <si>
@@ -110,13 +101,58 @@
   </si>
   <si>
     <t>Scaffold-DbContext "Server=AITD201904015;Database=JustRead;Trusted_Connection=True;" Microsoft.EntityFrameworkCore.SqlServer -OutputDir Models -ContextDir Models -Context JustReadDbContext -Force</t>
+  </si>
+  <si>
+    <t>Change default launching api: /Properties/launchSetting.json/"profile"/"launchUrl"</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>.Net Core Server</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>https://sensibledev.com/reactjs-webpack-and-asp-net-core/</t>
+  </si>
+  <si>
+    <t>generate webpack.config.js</t>
+  </si>
+  <si>
+    <t>create react redux with .net core project</t>
+  </si>
+  <si>
+    <t>Visual studio</t>
+  </si>
+  <si>
+    <t>Visual code: create redux app with yo</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/create-react-redux-app-structure</t>
+  </si>
+  <si>
+    <t>system environment variables : path: C:\Users\chittb\AppData\Roaming\npm</t>
+  </si>
+  <si>
+    <t>React redux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +169,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,37 +203,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -506,158 +561,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A876A1-FD1F-4D9D-95C5-8876A2647911}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="14.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="69.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="11" customWidth="1"/>
     <col min="6" max="6" width="79.5703125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8">
         <v>43564</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43594</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8">
+        <v>43625</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>43594</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>43625</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="3" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8">
+        <v>43717</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="3" t="s">
-        <v>24</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
+  <mergeCells count="17">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B6:B12"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{ED8A84D0-389D-4CF2-9AE3-B76479B4BF61}"/>
@@ -668,8 +816,11 @@
     <hyperlink ref="E10" r:id="rId6" xr:uid="{D725177C-15D3-4738-97D7-99EF5D63C47A}"/>
     <hyperlink ref="E11" r:id="rId7" xr:uid="{37C80F2D-9FC4-4B45-937C-C6A24C26AB8F}"/>
     <hyperlink ref="E12" r:id="rId8" xr:uid="{502C4AE6-2B76-4949-8BA7-B5669C4A43C1}"/>
+    <hyperlink ref="D14" r:id="rId9" display="https://sensibledev.com/reactjs-webpack-and-asp-net-core/" xr:uid="{B53D38B2-8625-4F52-9FD2-83EFD2D33D45}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{EF16C659-5FC9-45B9-AB57-F42E1F765B8B}"/>
+    <hyperlink ref="E16" r:id="rId11" xr:uid="{848BB40A-016A-4D5E-8EA5-B4ED5D3F83C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>